--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N2">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O2">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P2">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q2">
-        <v>6340.62206794108</v>
+        <v>20531.24779979804</v>
       </c>
       <c r="R2">
-        <v>57065.59861146972</v>
+        <v>184781.2301981823</v>
       </c>
       <c r="S2">
-        <v>0.5194900539072755</v>
+        <v>0.6359095110961523</v>
       </c>
       <c r="T2">
-        <v>0.5194900539072757</v>
+        <v>0.6359095110961523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.698085</v>
       </c>
       <c r="O3">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P3">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q3">
-        <v>151.5193955284533</v>
+        <v>239.2178288045866</v>
       </c>
       <c r="R3">
-        <v>1363.67455975608</v>
+        <v>2152.96045924128</v>
       </c>
       <c r="S3">
-        <v>0.01241405308621928</v>
+        <v>0.007409237570163862</v>
       </c>
       <c r="T3">
-        <v>0.01241405308621928</v>
+        <v>0.007409237570163864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N4">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O4">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P4">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q4">
-        <v>102.2655212278969</v>
+        <v>240.764492155712</v>
       </c>
       <c r="R4">
-        <v>920.3896910510721</v>
+        <v>2166.880429401408</v>
       </c>
       <c r="S4">
-        <v>0.008378660731751636</v>
+        <v>0.007457142010509381</v>
       </c>
       <c r="T4">
-        <v>0.00837866073175164</v>
+        <v>0.007457142010509381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H5">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I5">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J5">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N5">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O5">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P5">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q5">
-        <v>107.6846412684924</v>
+        <v>133.1622499472996</v>
       </c>
       <c r="R5">
-        <v>969.161771416432</v>
+        <v>1198.460249525696</v>
       </c>
       <c r="S5">
-        <v>0.008822651704853921</v>
+        <v>0.00412440306045519</v>
       </c>
       <c r="T5">
-        <v>0.008822651704853924</v>
+        <v>0.00412440306045519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N6">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O6">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P6">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q6">
-        <v>2779.084646923823</v>
+        <v>5699.804193943337</v>
       </c>
       <c r="R6">
-        <v>25011.7618223144</v>
+        <v>51298.23774549003</v>
       </c>
       <c r="S6">
-        <v>0.2276916708760939</v>
+        <v>0.1765386952443271</v>
       </c>
       <c r="T6">
-        <v>0.2276916708760939</v>
+        <v>0.176538695244327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>15.698085</v>
       </c>
       <c r="O7">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P7">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q7">
         <v>66.41071196363499</v>
@@ -883,10 +883,10 @@
         <v>597.6964076727149</v>
       </c>
       <c r="S7">
-        <v>0.005441059878405905</v>
+        <v>0.002056923368133424</v>
       </c>
       <c r="T7">
-        <v>0.005441059878405906</v>
+        <v>0.002056923368133424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N8">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O8">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P8">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q8">
-        <v>44.82281657995067</v>
+        <v>66.840090554811</v>
       </c>
       <c r="R8">
-        <v>403.405349219556</v>
+        <v>601.5608149932989</v>
       </c>
       <c r="S8">
-        <v>0.003672353777262044</v>
+        <v>0.002070222410288698</v>
       </c>
       <c r="T8">
-        <v>0.003672353777262044</v>
+        <v>0.002070222410288698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N9">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O9">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P9">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q9">
-        <v>47.19800834241233</v>
+        <v>36.96797964379034</v>
       </c>
       <c r="R9">
-        <v>424.782075081711</v>
+        <v>332.711816794113</v>
       </c>
       <c r="S9">
-        <v>0.003866954320158301</v>
+        <v>0.001145000542135899</v>
       </c>
       <c r="T9">
-        <v>0.003866954320158301</v>
+        <v>0.001145000542135898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N10">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O10">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P10">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q10">
-        <v>2320.429627181323</v>
+        <v>5051.456404971286</v>
       </c>
       <c r="R10">
-        <v>20883.8666446319</v>
+        <v>45463.10764474157</v>
       </c>
       <c r="S10">
-        <v>0.1901138562109402</v>
+        <v>0.1564575716065546</v>
       </c>
       <c r="T10">
-        <v>0.1901138562109402</v>
+        <v>0.1564575716065546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H11">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>15.698085</v>
       </c>
       <c r="O11">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P11">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q11">
-        <v>55.45041018207166</v>
+        <v>58.85655101343333</v>
       </c>
       <c r="R11">
-        <v>499.053691638645</v>
+        <v>529.7089591208999</v>
       </c>
       <c r="S11">
-        <v>0.00454307736149598</v>
+        <v>0.001822950117046773</v>
       </c>
       <c r="T11">
-        <v>0.004543077361495981</v>
+        <v>0.001822950117046773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H12">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N12">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O12">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P12">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q12">
-        <v>37.42534135509645</v>
+        <v>59.23708816185999</v>
       </c>
       <c r="R12">
-        <v>336.828072195868</v>
+        <v>533.1337934567399</v>
       </c>
       <c r="S12">
-        <v>0.00306627526285768</v>
+        <v>0.001834736404678658</v>
       </c>
       <c r="T12">
-        <v>0.00306627526285768</v>
+        <v>0.001834736404678658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H13">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N13">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O13">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P13">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q13">
-        <v>39.40853583675922</v>
+        <v>32.76290398693111</v>
       </c>
       <c r="R13">
-        <v>354.676822530833</v>
+        <v>294.86613588238</v>
       </c>
       <c r="S13">
-        <v>0.00322875929000017</v>
+        <v>0.001014757722451944</v>
       </c>
       <c r="T13">
-        <v>0.00322875929000017</v>
+        <v>0.001014757722451944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H14">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I14">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J14">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N14">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O14">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P14">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q14">
-        <v>107.0490317965899</v>
+        <v>67.68031876917267</v>
       </c>
       <c r="R14">
-        <v>963.441286169309</v>
+        <v>609.1228689225539</v>
       </c>
       <c r="S14">
-        <v>0.008770575931328146</v>
+        <v>0.002096246601229941</v>
       </c>
       <c r="T14">
-        <v>0.008770575931328149</v>
+        <v>0.002096246601229941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H15">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I15">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J15">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>15.698085</v>
       </c>
       <c r="O15">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P15">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q15">
-        <v>2.558109348881666</v>
+        <v>0.7885706249633333</v>
       </c>
       <c r="R15">
-        <v>23.022984139935</v>
+        <v>7.09713562467</v>
       </c>
       <c r="S15">
-        <v>0.0002095870640627482</v>
+        <v>2.442421256978611E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002095870640627483</v>
+        <v>2.442421256978611E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H16">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I16">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J16">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N16">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O16">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P16">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q16">
-        <v>1.726553785467111</v>
+        <v>0.7936691299180001</v>
       </c>
       <c r="R16">
-        <v>15.538984069204</v>
+        <v>7.143022169262</v>
       </c>
       <c r="S16">
-        <v>0.0001414573380143708</v>
+        <v>2.458212736506102E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001414573380143708</v>
+        <v>2.458212736506101E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H17">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I17">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J17">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N17">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O17">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P17">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q17">
-        <v>1.818045053566555</v>
+        <v>0.4389632628437778</v>
       </c>
       <c r="R17">
-        <v>16.362405482099</v>
+        <v>3.950669365594</v>
       </c>
       <c r="S17">
-        <v>0.0001489532592800991</v>
+        <v>1.359590593743184E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001489532592800991</v>
+        <v>1.359590593743184E-05</v>
       </c>
     </row>
   </sheetData>
